--- a/output/frequencies/VNM_women_2000.xlsx
+++ b/output/frequencies/VNM_women_2000.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.1</v>
+        <v>8.9</v>
       </c>
       <c r="C2" t="n">
         <v>513.7</v>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.6</v>
+        <v>10.2</v>
       </c>
       <c r="C3" t="n">
         <v>418.5</v>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="C4" t="n">
         <v>95.2</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.5</v>
+        <v>10.1</v>
       </c>
       <c r="C5" t="n">
         <v>29.1</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.1</v>
+        <v>10.9</v>
       </c>
       <c r="C6" t="n">
         <v>104</v>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.2</v>
+        <v>11.9</v>
       </c>
       <c r="C7" t="n">
         <v>105.4</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="C8" t="n">
         <v>108.6</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.3</v>
+        <v>10.2</v>
       </c>
       <c r="C9" t="n">
         <v>94.59999999999999</v>
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="C10" t="n">
         <v>72</v>
@@ -565,40 +565,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="C11" t="n">
-        <v>146.3</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9</v>
+        <v>8.1</v>
       </c>
       <c r="C12" t="n">
-        <v>17.8</v>
+        <v>66.59999999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.8</v>
+        <v>11.8</v>
       </c>
       <c r="C13" t="n">
-        <v>66.59999999999999</v>
+        <v>146.3</v>
       </c>
     </row>
     <row r="14">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.8</v>
+        <v>8.1</v>
       </c>
       <c r="C14" t="n">
         <v>283</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>96.3</v>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.9</v>
+        <v>9.4</v>
       </c>
       <c r="C16" t="n">
         <v>95.7</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.9</v>
+        <v>11.3</v>
       </c>
       <c r="C17" t="n">
         <v>142.7</v>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.2</v>
+        <v>8.1</v>
       </c>
       <c r="C18" t="n">
         <v>96.59999999999999</v>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="C19" t="n">
         <v>82.40000000000001</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.4</v>
+        <v>9.5</v>
       </c>
       <c r="C20" t="n">
         <v>421.8</v>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>14.5</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.4</v>
+        <v>10.5</v>
       </c>
       <c r="C22" t="n">
         <v>39.7</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="C23" t="n">
         <v>37.7</v>
@@ -738,7 +738,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="C24" t="n">
         <v>421.9</v>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.2</v>
+        <v>8.6</v>
       </c>
       <c r="C25" t="n">
         <v>91.7</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="C26" t="n">
         <v>117.9</v>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.1</v>
+        <v>9</v>
       </c>
       <c r="C27" t="n">
         <v>395.8</v>
